--- a/biology/Botanique/Tillandsia_aizoides/Tillandsia_aizoides.xlsx
+++ b/biology/Botanique/Tillandsia_aizoides/Tillandsia_aizoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia aizoides est une espèce de plantes de la famille des Bromeliaceae. L'épithète aizoides signifie « ressemblant à l'aiz(o)n ». Le terme aizoon signifie « toujours vivant » et désignait autrefois de nombreuses plantes de montagne en petite rosette acaule persistante, dont les saxifrages, les joubarbes, etc. L'épithète aizoides est une référence au port compact de la plante.
 </t>
@@ -511,12 +523,14 @@
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia aizoides Mez in C.DC., Monogr. Phan. 9: 866, n° 233 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « foliis caulem permanifestum quaquaverse vestientibus, haud ultra 20 mm. longis ; scapo conspicuo, praeter bracteam 7-nerviam vaginas 1-2 procreante; flore singulo ; sepalis antico cum reliquis ad 2 mm., posticis inter sese ad 2,5 mm. connatis. »
-Type : Mez[1] cite deux spécimens différents sans préciser explicitement son choix de l'holotype :
+Type : Mez cite deux spécimens différents sans préciser explicitement son choix de l'holotype :
 leg. Hieronymus &amp; Niederlein, n° 850 ; « Argentina, prov. Catamarca in valle de Tamatina » ; Syntypus B (in Herb. Hieron.). (B 10 0247107) Nb : ce syntype, le premier cité par Mez, est considéré à B comme l’holotype.
 leg. Lorentz &amp; Hieronymus ; « ad Chacrarita de los Padres, Quebrada de la Tala » ; Syntypus B (in Herb. Hieron.).</t>
         </is>
@@ -546,9 +560,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tillandsia coarctata Gill. ex Baker × Tillansia rectangula Baker (simple hypothèse proposée par Mez[1])</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tillandsia coarctata Gill. ex Baker × Tillansia rectangula Baker (simple hypothèse proposée par Mez)</t>
         </is>
       </c>
     </row>
@@ -578,10 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce se rencontre dans le centre et la province de Catamarca en Argentine [1] et dans le sud de la Bolivie[2].
-Habitat
-L'espèce se rencontre dans les zones sèches et ensoleillées[2] entre 600-2 600 mètres d'altitude[2].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre dans le centre et la province de Catamarca en Argentine  et dans le sud de la Bolivie.
 </t>
         </is>
       </c>
@@ -607,12 +626,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Distribution et habitat</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tillandsia aizoides est une plante herbacée en rosette acaule monocarpique, vivace par ses rejets latéraux et épiphyte[1],[2].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre dans les zones sèches et ensoleillées entre 600-2 600 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -638,12 +663,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia aizoides est une plante herbacée en rosette acaule monocarpique, vivace par ses rejets latéraux et épiphyte,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tillandsia_aizoides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_aizoides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia aizoides est réputée être de culture difficile[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia aizoides est réputée être de culture difficile.
 </t>
         </is>
       </c>
